--- a/medicine/Enfance/Alice_Brière-Haquet/Alice_Brière-Haquet.xlsx
+++ b/medicine/Enfance/Alice_Brière-Haquet/Alice_Brière-Haquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_Bri%C3%A8re-Haquet</t>
+          <t>Alice_Brière-Haquet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Brière-Haquet née le 10 février 1979 est une écrivaine, chercheuse et traductrice française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Brière-Haquet née le 10 février 1979 est une écrivaine, chercheuse et traductrice française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_Bri%C3%A8re-Haquet</t>
+          <t>Alice_Brière-Haquet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été professeur de lettres et d’histoire des arts en lycée, avant de se consacrer à plein temps à la littérature d'enfance et de jeunesse. 
-En 2008, elle ouvre un blog sur l’écriture intitulé Alice in Wonderblog[2].
-Son premier livre, L’épouvantail, illustré par Lydie Sabourin, paraît en 2009. Il est sélectionné aux pour la « Pépite du premier album » lors du Salon du livre et de la presse jeunesse. Depuis un grand nombre d’albums sont sortis[3], traduits dans une vingtaine de pays, et récompensés par des prix nationaux ou internationaux. Elle reçoit notamment le prix P'tits Mômes 2011[4] et le prix Gayant Lecture 2012[5] pour Le ballon de Zébulon illustré par Olivier Philipponneau, et un New York Times Award en 2015[6] pour son album Mme Eiffel illustré par Csil et paru aux éditions Frimousse. En 2017, le Mathical Youth Book Prize est décerné à ONE Very Big Bear, traduction en anglais de 1, 2, 3 Banquise[7].
-Alice Brière-Haquet est à l’initiative des Foires aux Tandems, qui rassemblent régulièrement auteurs et illustrateurs autour de projets d’édition, et a coordonné pour la Charte des auteurs et illustrateurs jeunesse un recueil de conseils aux jeunes écrivains : L’Abécédaire des Auteurs et Illustrateurs Jeunesse[8].
-Elle a soutenu en 2016 une thèse de doctorat en Littérature Comparée à l’Université Paris-Sorbonne sur les réécritures des contes de Charles Perrault[9]. 
-En 2020 elle créait la collection Philonimo aux éditions 3œil. Elle y explique avec des mots simples, les grandes idées de philosophes, antiques ou contemporains[10],[11].
-Elle fait régulièrement des rencontres[12] en milieu scolaire.
+En 2008, elle ouvre un blog sur l’écriture intitulé Alice in Wonderblog.
+Son premier livre, L’épouvantail, illustré par Lydie Sabourin, paraît en 2009. Il est sélectionné aux pour la « Pépite du premier album » lors du Salon du livre et de la presse jeunesse. Depuis un grand nombre d’albums sont sortis, traduits dans une vingtaine de pays, et récompensés par des prix nationaux ou internationaux. Elle reçoit notamment le prix P'tits Mômes 2011 et le prix Gayant Lecture 2012 pour Le ballon de Zébulon illustré par Olivier Philipponneau, et un New York Times Award en 2015 pour son album Mme Eiffel illustré par Csil et paru aux éditions Frimousse. En 2017, le Mathical Youth Book Prize est décerné à ONE Very Big Bear, traduction en anglais de 1, 2, 3 Banquise.
+Alice Brière-Haquet est à l’initiative des Foires aux Tandems, qui rassemblent régulièrement auteurs et illustrateurs autour de projets d’édition, et a coordonné pour la Charte des auteurs et illustrateurs jeunesse un recueil de conseils aux jeunes écrivains : L’Abécédaire des Auteurs et Illustrateurs Jeunesse.
+Elle a soutenu en 2016 une thèse de doctorat en Littérature Comparée à l’Université Paris-Sorbonne sur les réécritures des contes de Charles Perrault. 
+En 2020 elle créait la collection Philonimo aux éditions 3œil. Elle y explique avec des mots simples, les grandes idées de philosophes, antiques ou contemporains,.
+Elle fait régulièrement des rencontres en milieu scolaire.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_Bri%C3%A8re-Haquet</t>
+          <t>Alice_Brière-Haquet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Albums :
@@ -584,7 +600,7 @@
 Dis-moi, l’oiseau… ill. Claire Garralon aux éditions Thierry Magnier, 2013
 Zébulon et le poussin, ill. Olivier Philipponneau et Raphaële Enjary aux éditions MeMo, 2014
 Le Peintre de la beauté ill. Judith Gueyfier chez L’élan vert, 2014
-Le Bonhomme et l’oiseau[13], ill. Clotilde Perrin chez Père Castor, 2014
+Le Bonhomme et l’oiseau, ill. Clotilde Perrin chez Père Castor, 2014
 1, 2, 3 Banquise ill. Olivier Philipponneau et Raphaële Enjary aux éditions MeMo, 2014
 La Bûche, ill. Julie Faulques aux éditions Feuilles de menthe, 2015.
 Nina, ill. Bruno Liance aux éditions Gallimard Giboulées, 2015.
@@ -603,7 +619,7 @@
 Bonne nuit, mon petit, ill. Aurélie Abolivier aux éditions Père Castor, 2016.
 Tangram, ill. Sylvain Lamy, aux éditions 3œil, 2017.
 Il, Elle, Lui, ill. Olivier Philipponneau et Raphaële Enjary, aux éditions 3œil, 2017.
-Dans la lune[14], ill. Annelore Parot, Gautier-Languereau, 2019
+Dans la lune, ill. Annelore Parot, Gautier-Languereau, 2019
 Le Porc-épic de Schopenhauer - Philonimo 1, ill Olivier Philipponneau, aux éditions 3œil, 2020
 Le Corbeau d'Épictète - Philonimo 2, ill Csil aux éditions 3œil, 2020
 Le Papillon de Tchouang-Tseu - Philonimo 3, ill Raphaële Enjary aux éditions 3œil, 2020
@@ -616,11 +632,11 @@
 La Colombe de Kant - Philonimo 8, ill Émilie Vast aux éditions 3œil, 2022
 Le Loup de Hobbes - Philonimo 9, ill Ghislaine Herbéra aux éditions 3œil, 2023
 Romans :
-La Princesse qui n'aimait pas les princes[15], ill. Lionel Larchevêque aux éditions Actes Sud, 2010
+La Princesse qui n'aimait pas les princes, ill. Lionel Larchevêque aux éditions Actes Sud, 2010
 Série Collège Art, ill. Kim Consigny aux éditions Flammarion (2013-2015)
 Série Au Secours, ill. Églantine Ceulemans aux éditions Flammarion (2015-2017)
 E-book :
-Renversant ! ill. Olivier Philipponneau, application pour iPad, 2010[16]</t>
+Renversant ! ill. Olivier Philipponneau, application pour iPad, 2010</t>
         </is>
       </c>
     </row>
@@ -630,7 +646,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alice_Bri%C3%A8re-Haquet</t>
+          <t>Alice_Brière-Haquet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -648,14 +664,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2009 : Sélection « Pépite du premier album », Salon du livre et de la presse jeunesse de Montreuil pour L'épouvantail avec Lydie Sabourin
-2011 : Prix P'tits Mômes des bibliothèques de Genève[17] pour Le Ballon de Zébulon avec Olivier Philipponneau
-2012 : Prix Gayant Lecture[5] pour Le ballon de Zébulon
-2015 : New York Times Awards[18] pour Mme Eiffel avec Csil
-2016 : Sélection Prix des incorruptibles[19] pour Le Bonhomme et l'oiseau, illustrations de Clotilde Perrin.
-2022 : Prix du livre Grand Est pour la collection Philonimo[20]</t>
+2011 : Prix P'tits Mômes des bibliothèques de Genève pour Le Ballon de Zébulon avec Olivier Philipponneau
+2012 : Prix Gayant Lecture pour Le ballon de Zébulon
+2015 : New York Times Awards pour Mme Eiffel avec Csil
+2016 : Sélection Prix des incorruptibles pour Le Bonhomme et l'oiseau, illustrations de Clotilde Perrin.
+2022 : Prix du livre Grand Est pour la collection Philonimo</t>
         </is>
       </c>
     </row>
